--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643693.391478593</v>
+        <v>1588741.502194498</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013173</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>60.57545545242611</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>277.8152915385623</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.82096383790513</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -1457,16 +1457,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.84345120350704</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>147.0413896664764</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>16.9345688696496</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.0001043529486</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>87.63319326612977</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>344.9164202291853</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>90.22595344863068</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -1751,10 +1751,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>120.0431629525827</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.35340349906471</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.376832222376811</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>183.3440908632755</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>271.1209189175054</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>33.65771117632188</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
@@ -1982,16 +1982,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>195.2865290369087</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>131.0804113283489</v>
       </c>
       <c r="T19" t="n">
-        <v>8.916258666857129</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>247.9523765393349</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>118.4096332212677</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>111.9180585243799</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -2177,10 +2177,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>159.2720733848147</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>76.53519509961447</v>
       </c>
     </row>
     <row r="23">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -2335,10 +2335,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>320.7247792174379</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>90.24152158232694</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>79.9913286633857</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.7969997889531</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67880083738547</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>158.6107100818746</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>43.63601260765383</v>
       </c>
       <c r="S26" t="n">
-        <v>88.21713932391562</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2642,19 +2642,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>43.20037596510177</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>94.19400424784145</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>119.920671635353</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>52.42857711587138</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>312.0707525433661</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>169.8679212068087</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>84.29594815633693</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.7163753874515</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.61813689207861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>45.01869992977738</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>214.0920521918442</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19.30014366516757</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>44.96018373780192</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>52.42857711587135</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>50.00010435294862</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>363.7928114478418</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.0283440390068</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.329915919761908</v>
+        <v>25.94228064270939</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
@@ -3410,10 +3410,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>123.1434003800102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.0353801463917</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>239.754049498718</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>21.79000353895458</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>167.0838782944803</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>192.2975940168488</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>140.9968429928009</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>80.39631948615283</v>
       </c>
       <c r="G43" t="n">
-        <v>119.920671635353</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>245.5564611981211</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>94.52951891421519</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.7378125312151</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>89.30113536000607</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.9345688696496</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>119.9206716353532</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>618.5191705313932</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C11" t="n">
-        <v>618.5191705313932</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D11" t="n">
-        <v>618.5191705313932</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E11" t="n">
-        <v>618.5191705313932</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F11" t="n">
-        <v>618.5191705313932</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K11" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5065,28 +5065,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759913</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313932</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W11" t="n">
-        <v>618.5191705313932</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X11" t="n">
-        <v>618.5191705313932</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="Y11" t="n">
-        <v>618.5191705313932</v>
+        <v>1238.432552822484</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>615.636128657924</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>426.2238543908877</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
         <v>115.9747045751594</v>
@@ -5120,52 +5120,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676439</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1322.652080056737</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>1083.078954384284</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V12" t="n">
-        <v>1083.078954384284</v>
+        <v>1060.7848161059</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.078954384284</v>
+        <v>1060.7848161059</v>
       </c>
       <c r="X12" t="n">
-        <v>1083.078954384284</v>
+        <v>841.2768217225964</v>
       </c>
       <c r="Y12" t="n">
-        <v>1083.078954384284</v>
+        <v>615.636128657924</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651446</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651446</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651446</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306433</v>
@@ -5211,40 +5211,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
         <v>34.31465285444516</v>
@@ -5278,16 +5278,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157783</v>
@@ -5305,25 +5305,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1300.7066125121</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>1048.145630292934</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V14" t="n">
-        <v>724.0246367483363</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W14" t="n">
-        <v>382.7150773283698</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X14" t="n">
-        <v>34.31465285444516</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.31465285444516</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.4519795702337</v>
+        <v>628.4192162975413</v>
       </c>
       <c r="C15" t="n">
-        <v>125.4519795702337</v>
+        <v>439.006942030505</v>
       </c>
       <c r="D15" t="n">
-        <v>125.4519795702337</v>
+        <v>439.006942030505</v>
       </c>
       <c r="E15" t="n">
-        <v>125.4519795702337</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F15" t="n">
-        <v>125.4519795702337</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3287381944633</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2338702498415</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M15" t="n">
-        <v>770.1254798029031</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N15" t="n">
-        <v>1173.359244302914</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O15" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P15" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
@@ -5384,25 +5384,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1322.652080056737</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U15" t="n">
-        <v>1083.078954384284</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V15" t="n">
-        <v>839.9992362879184</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W15" t="n">
-        <v>570.6006670182097</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X15" t="n">
-        <v>351.0926726349061</v>
+        <v>628.4192162975413</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.4519795702337</v>
+        <v>628.4192162975413</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306433</v>
@@ -5448,40 +5448,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="T16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="U16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="V16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="W16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="X16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231974</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.6975439683318</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="C17" t="n">
-        <v>221.6975439683318</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="D17" t="n">
-        <v>221.6975439683318</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="E17" t="n">
-        <v>221.6975439683318</v>
+        <v>641.1254105614997</v>
       </c>
       <c r="F17" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602942</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193746</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389716</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292776</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5542,25 +5542,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U17" t="n">
-        <v>1160.987610990983</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V17" t="n">
-        <v>836.8666174463846</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="W17" t="n">
-        <v>495.557058026418</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="X17" t="n">
-        <v>221.6975439683318</v>
+        <v>1016.356634866183</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.6975439683318</v>
+        <v>1016.356634866183</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>798.0460588632965</v>
+        <v>257.7246151783722</v>
       </c>
       <c r="C18" t="n">
-        <v>798.0460588632965</v>
+        <v>68.31234091133595</v>
       </c>
       <c r="D18" t="n">
-        <v>637.2659426243282</v>
+        <v>68.31234091133595</v>
       </c>
       <c r="E18" t="n">
-        <v>463.7027387457426</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F18" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
         <v>34.31465285444516</v>
@@ -5594,52 +5594,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2338702498411</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029026</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N18" t="n">
-        <v>1173.359244302914</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.492278349808</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025982</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V18" t="n">
-        <v>798.0460588632965</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W18" t="n">
-        <v>798.0460588632965</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="X18" t="n">
-        <v>798.0460588632965</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.0460588632965</v>
+        <v>436.2604681053073</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C19" t="n">
         <v>34.31465285444516</v>
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5700,25 +5700,25 @@
         <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800222</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="T19" t="n">
-        <v>325.8513534943079</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="U19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="V19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0575795021006</v>
+        <v>1013.745749806112</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444516</v>
+        <v>660.0028231584564</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444516</v>
+        <v>660.0028231584564</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>284.7715988537734</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193758</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389727</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292786</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U20" t="n">
-        <v>1075.595456172664</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V20" t="n">
-        <v>751.4744626280664</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W20" t="n">
-        <v>751.4744626280664</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="X20" t="n">
-        <v>388.0575795021006</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="Y20" t="n">
-        <v>388.0575795021006</v>
+        <v>1391.611649177661</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>992.7546545480308</v>
+        <v>776.0638449406799</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>586.6515706736436</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H21" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5863020207054</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T21" t="n">
-        <v>1501.726349490192</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U21" t="n">
-        <v>1262.153223817739</v>
+        <v>1467.07798523369</v>
       </c>
       <c r="V21" t="n">
-        <v>1262.153223817739</v>
+        <v>1223.998267137324</v>
       </c>
       <c r="W21" t="n">
-        <v>992.7546545480308</v>
+        <v>954.5996978676151</v>
       </c>
       <c r="X21" t="n">
-        <v>992.7546545480308</v>
+        <v>954.5996978676151</v>
       </c>
       <c r="Y21" t="n">
-        <v>992.7546545480308</v>
+        <v>954.5996978676151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K22" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T22" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U22" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="V22" t="n">
-        <v>84.81980876651434</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C23" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D23" t="n">
-        <v>1374.548643083645</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E23" t="n">
-        <v>1374.548643083645</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>967.276673750298</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>545.6619674202893</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K23" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="W23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="X23" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="Y23" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.118384851047</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C24" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>54.40930111025869</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>337.3144331656369</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440573</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440573</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440573</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440573</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170864</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X24" t="n">
-        <v>1358.560298170864</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y24" t="n">
-        <v>1247.654237777982</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.083501054874</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E25" t="n">
-        <v>1425.976287709192</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>916.6244702546006</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="C26" t="n">
-        <v>562.8815436069452</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="D26" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E26" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F26" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G26" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H26" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K26" t="n">
         <v>253.8975067193751</v>
@@ -6238,7 +6238,7 @@
         <v>856.646000929278</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1671.655862310487</v>
       </c>
       <c r="S26" t="n">
-        <v>1521.118954966006</v>
+        <v>1474.977279015321</v>
       </c>
       <c r="T26" t="n">
-        <v>1302.771508051015</v>
+        <v>1474.977279015321</v>
       </c>
       <c r="U26" t="n">
-        <v>1302.771508051015</v>
+        <v>1474.977279015321</v>
       </c>
       <c r="V26" t="n">
-        <v>1302.771508051015</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="W26" t="n">
-        <v>1302.771508051015</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="X26" t="n">
-        <v>1302.771508051015</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="Y26" t="n">
-        <v>916.6244702546006</v>
+        <v>1150.856285470723</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>639.7302989597495</v>
+        <v>738.0405366190585</v>
       </c>
       <c r="C27" t="n">
-        <v>450.3180246927132</v>
+        <v>548.6282623520221</v>
       </c>
       <c r="D27" t="n">
-        <v>289.5379084537449</v>
+        <v>387.8481461130539</v>
       </c>
       <c r="E27" t="n">
-        <v>115.9747045751594</v>
+        <v>387.8481461130539</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9747045751594</v>
+        <v>227.420429830298</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9747045751594</v>
+        <v>77.95139625353787</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>77.95139625353787</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P27" t="n">
         <v>1715.732642722258</v>
@@ -6329,28 +6329,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U27" t="n">
-        <v>1627.958867440573</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V27" t="n">
-        <v>1532.813408604369</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W27" t="n">
-        <v>1263.414839334661</v>
+        <v>963.6812296837307</v>
       </c>
       <c r="X27" t="n">
-        <v>1043.906844951357</v>
+        <v>963.6812296837307</v>
       </c>
       <c r="Y27" t="n">
-        <v>818.2661518866846</v>
+        <v>738.0405366190585</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
         <v>34.31465285444516</v>
@@ -6387,7 +6387,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
@@ -6396,40 +6396,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R28" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S28" t="n">
-        <v>334.8576753800221</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T28" t="n">
-        <v>334.8576753800221</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U28" t="n">
-        <v>334.8576753800221</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1329.585604925845</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.585604925845</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>988.4016052872314</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>613.1703809825484</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>205.8984116492014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>205.8984116492014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>205.8984116492014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719376</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292789</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722259</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722259</v>
+        <v>1089.427599665551</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.732642722259</v>
+        <v>1089.427599665551</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.732642722259</v>
+        <v>1089.427599665551</v>
       </c>
       <c r="Y29" t="n">
-        <v>1329.585604925845</v>
+        <v>703.280561869137</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>980.7026033525997</v>
+        <v>368.657972971999</v>
       </c>
       <c r="C30" t="n">
-        <v>791.2903290855634</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D30" t="n">
-        <v>630.5102128465951</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>395.233870249842</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029036</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302915</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349809</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440573</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U30" t="n">
-        <v>1627.958867440573</v>
+        <v>1106.776953402746</v>
       </c>
       <c r="V30" t="n">
-        <v>1384.879149344207</v>
+        <v>863.69723530638</v>
       </c>
       <c r="W30" t="n">
-        <v>1384.879149344207</v>
+        <v>594.2986660366713</v>
       </c>
       <c r="X30" t="n">
-        <v>1384.879149344207</v>
+        <v>594.2986660366713</v>
       </c>
       <c r="Y30" t="n">
-        <v>1159.238456279535</v>
+        <v>368.657972971999</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
         <v>42.23041924514574</v>
@@ -6633,40 +6633,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R31" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S31" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T31" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U31" t="n">
-        <v>334.8576753800221</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V31" t="n">
-        <v>334.8576753800221</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W31" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>110.6966093110902</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>978.9465481215775</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C32" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D32" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E32" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F32" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602968</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193758</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389727</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292786</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="U32" t="n">
-        <v>978.9465481215775</v>
+        <v>1160.987610990984</v>
       </c>
       <c r="V32" t="n">
-        <v>978.9465481215775</v>
+        <v>1160.987610990984</v>
       </c>
       <c r="W32" t="n">
-        <v>978.9465481215775</v>
+        <v>819.678051571017</v>
       </c>
       <c r="X32" t="n">
-        <v>978.9465481215775</v>
+        <v>819.678051571017</v>
       </c>
       <c r="Y32" t="n">
-        <v>978.9465481215775</v>
+        <v>433.531013774603</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>404.0021379717301</v>
+        <v>384.1546434042374</v>
       </c>
       <c r="C33" t="n">
-        <v>214.5898637046938</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="D33" t="n">
-        <v>53.80974746572554</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S33" t="n">
         <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1536.658373288803</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U33" t="n">
-        <v>1297.08524761635</v>
+        <v>1277.237753048857</v>
       </c>
       <c r="V33" t="n">
-        <v>1297.08524761635</v>
+        <v>1277.237753048857</v>
       </c>
       <c r="W33" t="n">
-        <v>1027.686678346641</v>
+        <v>1007.839183779148</v>
       </c>
       <c r="X33" t="n">
-        <v>808.1786839633376</v>
+        <v>788.3311893958448</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.5379908986652</v>
+        <v>562.6904963311724</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="C34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q34" t="n">
-        <v>1641.850525523206</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.694776108751</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="X34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1415.189620196681</v>
+        <v>87.27281155734553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1558.12825480407</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.385328156414</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2013285178008</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="E35" t="n">
-        <v>863.2013285178008</v>
+        <v>809.0541084987435</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>401.7821391653965</v>
       </c>
       <c r="G35" t="n">
         <v>34.31465285444516</v>
@@ -6937,22 +6937,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K35" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
@@ -6961,28 +6961,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y35" t="n">
-        <v>1558.12825480407</v>
+        <v>809.0541084987435</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.6782042885481</v>
+        <v>571.1390835247303</v>
       </c>
       <c r="C36" t="n">
-        <v>37.6782042885481</v>
+        <v>381.726809257694</v>
       </c>
       <c r="D36" t="n">
-        <v>37.6782042885481</v>
+        <v>220.9466930187257</v>
       </c>
       <c r="E36" t="n">
-        <v>37.6782042885481</v>
+        <v>220.9466930187257</v>
       </c>
       <c r="F36" t="n">
-        <v>37.6782042885481</v>
+        <v>60.5189767359698</v>
       </c>
       <c r="G36" t="n">
-        <v>37.6782042885481</v>
+        <v>60.5189767359698</v>
       </c>
       <c r="H36" t="n">
-        <v>37.6782042885481</v>
+        <v>60.5189767359698</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944633</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498415</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
         <v>1486.492278349808</v>
@@ -7040,28 +7040,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T36" t="n">
-        <v>1234.878304775052</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U36" t="n">
-        <v>995.3051791025987</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V36" t="n">
-        <v>752.2254610062328</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W36" t="n">
-        <v>482.8268917365241</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X36" t="n">
-        <v>263.3188973532204</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.6782042885481</v>
+        <v>749.6749364516653</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="F37" t="n">
-        <v>1584.94215937206</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1005.464611381246</v>
+        <v>450.719579649971</v>
       </c>
       <c r="C38" t="n">
-        <v>651.7216847335908</v>
+        <v>96.97665300231557</v>
       </c>
       <c r="D38" t="n">
-        <v>651.7216847335908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E38" t="n">
-        <v>276.4904604289078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F38" t="n">
-        <v>276.4904604289078</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,52 +7174,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389716</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292774</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V38" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="W38" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="X38" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="Y38" t="n">
-        <v>1005.464611381246</v>
+        <v>450.719579649971</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>216.7524737220037</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="C39" t="n">
-        <v>216.7524737220037</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D39" t="n">
-        <v>216.7524737220037</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E39" t="n">
-        <v>216.7524737220037</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>56.32475743924778</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
-        <v>56.32475743924778</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
         <v>34.31465285444516</v>
@@ -7253,52 +7253,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>54.40930111025869</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L39" t="n">
-        <v>337.3144331656369</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M39" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N39" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T39" t="n">
-        <v>1413.952574208507</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U39" t="n">
-        <v>1174.379448536054</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V39" t="n">
-        <v>931.2997304396883</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W39" t="n">
-        <v>661.9011611699797</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X39" t="n">
-        <v>442.393166786676</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y39" t="n">
-        <v>216.7524737220037</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200892</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015944</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="C41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="D41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="E41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="F41" t="n">
-        <v>221.6975439683318</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G41" t="n">
         <v>221.6975439683318</v>
@@ -7411,16 +7411,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292787</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7441,22 +7441,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1546.961048485409</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U41" t="n">
-        <v>1294.400066266243</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="V41" t="n">
-        <v>970.2790727216454</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="W41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="X41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="Y41" t="n">
-        <v>628.9695133016788</v>
+        <v>1050.584219631688</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>949.6270488192655</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="C42" t="n">
-        <v>760.2147745522292</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D42" t="n">
-        <v>599.4346583132609</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E42" t="n">
-        <v>425.8714544346753</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>265.4437381519194</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443596</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1573.311589194177</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T42" t="n">
-        <v>1573.311589194177</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U42" t="n">
-        <v>1573.311589194177</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V42" t="n">
-        <v>1573.311589194177</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W42" t="n">
-        <v>1573.311589194177</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X42" t="n">
-        <v>1353.803594810873</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y42" t="n">
-        <v>1128.162901746201</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.4466444053068</v>
+        <v>115.5230563758117</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4466444053068</v>
+        <v>115.5230563758117</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4466444053068</v>
+        <v>115.5230563758117</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4466444053068</v>
+        <v>115.5230563758117</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
         <v>34.31465285444516</v>
@@ -7572,7 +7572,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306433</v>
@@ -7581,40 +7581,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>334.8576753800221</v>
+        <v>115.5230563758117</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.7298767977416</v>
+        <v>1111.238158010852</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>1111.238158010852</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5458771591282</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444517</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444517</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292786</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505316</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>1610.227176505316</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V44" t="n">
-        <v>1610.227176505316</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="W44" t="n">
-        <v>1610.227176505316</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="X44" t="n">
-        <v>1514.742813965704</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.59577616929</v>
+        <v>1111.238158010852</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>734.8757577959532</v>
+        <v>784.6069602502749</v>
       </c>
       <c r="C45" t="n">
-        <v>734.8757577959532</v>
+        <v>595.1946859832386</v>
       </c>
       <c r="D45" t="n">
-        <v>574.0956415569849</v>
+        <v>434.4145697442704</v>
       </c>
       <c r="E45" t="n">
-        <v>400.5324376783993</v>
+        <v>434.4145697442704</v>
       </c>
       <c r="F45" t="n">
-        <v>265.4437381519194</v>
+        <v>273.9868534615144</v>
       </c>
       <c r="G45" t="n">
-        <v>115.9747045751594</v>
+        <v>124.5178198847543</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444517</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L45" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M45" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T45" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U45" t="n">
-        <v>1627.958867440573</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V45" t="n">
-        <v>1627.958867440573</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W45" t="n">
-        <v>1358.560298170864</v>
+        <v>784.6069602502749</v>
       </c>
       <c r="X45" t="n">
-        <v>1139.052303787561</v>
+        <v>784.6069602502749</v>
       </c>
       <c r="Y45" t="n">
-        <v>913.4116107228883</v>
+        <v>784.6069602502749</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.8576753800222</v>
+        <v>155.446644405307</v>
       </c>
       <c r="C46" t="n">
-        <v>334.8576753800222</v>
+        <v>155.446644405307</v>
       </c>
       <c r="D46" t="n">
-        <v>334.8576753800222</v>
+        <v>155.446644405307</v>
       </c>
       <c r="E46" t="n">
-        <v>191.7504620343404</v>
+        <v>155.446644405307</v>
       </c>
       <c r="F46" t="n">
-        <v>51.42027797530335</v>
+        <v>155.446644405307</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444517</v>
+        <v>155.446644405307</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
         <v>42.23041924514574</v>
@@ -8768,13 +8768,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017199</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K15" t="n">
-        <v>67.15086399372865</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>242.5711743638665</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131756</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L18" t="n">
-        <v>136.0819341662187</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131754</v>
+        <v>123.4784739253762</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9488,10 +9488,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535096</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K24" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455032</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4146410504037</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -9962,7 +9962,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>197.5542717195777</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890786</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>136.0819341662197</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890786</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
@@ -10436,7 +10436,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890791</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K36" t="n">
-        <v>67.15086399372865</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10679,13 +10679,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017199</v>
       </c>
       <c r="P36" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131756</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K39" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455032</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.1808494245546</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455032</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11153,13 +11153,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
-        <v>59.54645836938565</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372811</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11393,7 +11393,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>122.4388889890788</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
         <v>44.67636752131754</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>356.8231038142824</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>81.96742275614383</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>162.9295305597606</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>93.60753124892582</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,13 +23421,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>128.2480813810611</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>168.0550137836253</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258726</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23506,10 +23506,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
@@ -23545,25 +23545,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.4021791308448</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>14.86629406552078</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>57.74838979236181</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>97.26975148688786</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>71.829246751646</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7061618107479</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23740,19 +23740,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>219.855158776738</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>88.66179537720075</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>138.1698606634778</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350704</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>45.36239187849353</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23940,13 +23940,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>93.10377747290764</v>
       </c>
       <c r="T19" t="n">
-        <v>212.0861385338497</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>155.2468731006785</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>131.6257391757068</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>75.60009299998597</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>77.90532103091371</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213336334641</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>240.3106027363868</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>140.6060777145539</v>
       </c>
     </row>
     <row r="23">
@@ -24211,10 +24211,10 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>11.55317562756676</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>14.20888997244653</v>
       </c>
       <c r="S23" t="n">
         <v>194.7117974622146</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.90470886548313</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.5872863450725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>128.2480813810612</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>130.0106235515895</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.81439894711963</v>
       </c>
       <c r="S26" t="n">
-        <v>106.494658138299</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>37.64307523840527</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -24578,16 +24578,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>146.4549166675608</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>46.5365093366193</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R28" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>171.7556116853852</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24660,7 +24660,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>62.01648783446723</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
@@ -24700,7 +24700,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>15.64114099593907</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
@@ -24739,7 +24739,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>87.53162368346274</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>23.46101902827698</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
@@ -24894,19 +24894,19 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.5231359220898</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>329.068540448056</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>35.94332020513033</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>152.5274281746321</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>192.2172106779265</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,7 +25089,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0550137836253</v>
+        <v>115.6264366677539</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>174.1840844483079</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
@@ -25134,7 +25134,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25156,10 +25156,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>53.60574781886669</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>226.2572233794431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
@@ -25253,7 +25253,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>77.51353528374514</v>
+        <v>54.90117056079765</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25323,10 +25323,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>44.91161340361509</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R37" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>224.1841888012565</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>275.7367794958355</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>177.6445097679905</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>97.29219807573524</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25481,13 +25481,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>96.50641913250902</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
         <v>80.84345120350704</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553585</v>
+        <v>65.66803606867872</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25605,7 +25605,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>141.5231359220896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -25681,16 +25681,16 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>49.08009415136141</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>128.5821895923032</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>97.29219807573524</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>36.28668374632007</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25797,10 +25797,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>58.53056273229382</v>
       </c>
       <c r="G43" t="n">
-        <v>48.13434214827222</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
         <v>174.3941919203111</v>
@@ -25854,7 +25854,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>92.21569844410618</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.0353723969745</v>
@@ -25930,7 +25930,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>265.2531953804909</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>25.08562658871324</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>28.99528731145753</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -26031,16 +26031,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>151.1204449139757</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>40.16232239777159</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>560951.7552254329</v>
+        <v>560951.755225433</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>560951.7552254328</v>
+        <v>560951.7552254329</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>560951.755225433</v>
+        <v>560951.7552254329</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>560951.755225433</v>
+        <v>560951.7552254329</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>560951.7552254329</v>
+        <v>560951.755225433</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>560951.7552254329</v>
+        <v>560951.755225433</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>560951.7552254329</v>
+        <v>560951.7552254328</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595304.0967441102</v>
+        <v>595304.0967441107</v>
       </c>
       <c r="C2" t="n">
         <v>595304.0967441105</v>
       </c>
       <c r="D2" t="n">
-        <v>595304.0967441106</v>
+        <v>595304.0967441102</v>
       </c>
       <c r="E2" t="n">
+        <v>338123.8689204559</v>
+      </c>
+      <c r="F2" t="n">
         <v>338123.8689204557</v>
       </c>
-      <c r="F2" t="n">
-        <v>338123.8689204558</v>
-      </c>
       <c r="G2" t="n">
-        <v>338123.8689204556</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="H2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="I2" t="n">
-        <v>338123.8689204558</v>
+        <v>338123.8689204557</v>
       </c>
       <c r="J2" t="n">
         <v>338123.8689204557</v>
@@ -26343,19 +26343,19 @@
         <v>338123.8689204557</v>
       </c>
       <c r="L2" t="n">
+        <v>338123.8689204558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>338123.868920456</v>
+      </c>
+      <c r="N2" t="n">
+        <v>338123.8689204558</v>
+      </c>
+      <c r="O2" t="n">
         <v>338123.8689204559</v>
       </c>
-      <c r="M2" t="n">
-        <v>338123.8689204557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>338123.8689204556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>338123.8689204556</v>
-      </c>
       <c r="P2" t="n">
-        <v>338123.8689204556</v>
+        <v>338123.8689204558</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
         <v>22779.9226089727</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189047</v>
       </c>
       <c r="L5" t="n">
+        <v>36091.33751189047</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36091.33751189047</v>
+      </c>
+      <c r="N5" t="n">
+        <v>36091.33751189047</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36091.33751189047</v>
+      </c>
+      <c r="P5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36091.33751189046</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36091.33751189046</v>
-      </c>
-      <c r="O5" t="n">
-        <v>36091.33751189046</v>
-      </c>
-      <c r="P5" t="n">
-        <v>36091.33751189047</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157884.876804515</v>
+        <v>157840.2129624636</v>
       </c>
       <c r="C6" t="n">
-        <v>157884.8768045152</v>
+        <v>157840.2129624633</v>
       </c>
       <c r="D6" t="n">
-        <v>157884.8768045153</v>
+        <v>157840.2129624631</v>
       </c>
       <c r="E6" t="n">
-        <v>-217800.5430179</v>
+        <v>-227370.40048305</v>
       </c>
       <c r="F6" t="n">
-        <v>279252.6087995927</v>
+        <v>269682.7513344423</v>
       </c>
       <c r="G6" t="n">
-        <v>279252.6087995925</v>
+        <v>269682.7513344425</v>
       </c>
       <c r="H6" t="n">
-        <v>279252.6087995926</v>
+        <v>269682.7513344423</v>
       </c>
       <c r="I6" t="n">
-        <v>279252.6087995927</v>
+        <v>269682.7513344423</v>
       </c>
       <c r="J6" t="n">
-        <v>279252.6087995926</v>
+        <v>269682.7513344423</v>
       </c>
       <c r="K6" t="n">
-        <v>279252.6087995925</v>
+        <v>269682.7513344423</v>
       </c>
       <c r="L6" t="n">
-        <v>279252.6087995928</v>
+        <v>269682.7513344424</v>
       </c>
       <c r="M6" t="n">
-        <v>172360.7494253532</v>
+        <v>162790.8919602032</v>
       </c>
       <c r="N6" t="n">
-        <v>279252.6087995925</v>
+        <v>269682.7513344424</v>
       </c>
       <c r="O6" t="n">
-        <v>279252.6087995925</v>
+        <v>269682.7513344425</v>
       </c>
       <c r="P6" t="n">
-        <v>279252.6087995925</v>
+        <v>269682.7513344424</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
         <v>459.2752909409237</v>
@@ -26804,10 +26804,10 @@
         <v>428.9331606805646</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805646</v>
@@ -26816,10 +26816,10 @@
         <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.9331606805647</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805646</v>
@@ -26831,7 +26831,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31764,16 +31764,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L11" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O11" t="n">
         <v>311.0863102573771</v>
@@ -31782,16 +31782,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R11" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I12" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N12" t="n">
         <v>256.9298629953381</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T12" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31940,7 +31940,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R13" t="n">
         <v>37.2389440818657</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,16 +32001,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L14" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O14" t="n">
         <v>311.0863102573771</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I15" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N15" t="n">
         <v>256.9298629953381</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32177,7 +32177,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R16" t="n">
         <v>37.2389440818657</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R20" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S21" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,19 +32651,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T24" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32888,7 +32888,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,16 +32949,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L26" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O26" t="n">
         <v>311.0863102573771</v>
@@ -32967,16 +32967,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R26" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I27" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L27" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M27" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N27" t="n">
         <v>256.9298629953381</v>
@@ -33049,16 +33049,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S27" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T27" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33125,7 +33125,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R28" t="n">
         <v>37.2389440818657</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,16 +33186,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L29" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O29" t="n">
         <v>311.0863102573771</v>
@@ -33204,16 +33204,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R29" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I30" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M30" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N30" t="n">
         <v>256.9298629953381</v>
@@ -33286,16 +33286,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S30" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T30" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33362,7 +33362,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R31" t="n">
         <v>37.2389440818657</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,16 +33423,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L32" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O32" t="n">
         <v>311.0863102573771</v>
@@ -33441,16 +33441,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R32" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I33" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L33" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M33" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N33" t="n">
         <v>256.9298629953381</v>
@@ -33523,16 +33523,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S33" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T33" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33599,7 +33599,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R34" t="n">
         <v>37.2389440818657</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,16 +33660,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L35" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O35" t="n">
         <v>311.0863102573771</v>
@@ -33678,16 +33678,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I36" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T36" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33836,7 +33836,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R37" t="n">
         <v>37.2389440818657</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,16 +33897,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L38" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O38" t="n">
         <v>311.0863102573771</v>
@@ -33915,16 +33915,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I39" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34073,7 +34073,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R40" t="n">
         <v>37.2389440818657</v>
@@ -34085,7 +34085,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,16 +34134,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
         <v>311.0863102573771</v>
@@ -34152,16 +34152,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R41" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L42" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M42" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N42" t="n">
         <v>256.9298629953381</v>
@@ -34234,16 +34234,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34310,7 +34310,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
         <v>37.2389440818657</v>
@@ -34322,7 +34322,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O11" t="n">
         <v>277.1250097811783</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.08643512996213</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
         <v>378.678393487941</v>
@@ -35503,13 +35503,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971608</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N13" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811783</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>58.50448190323699</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518972</v>
@@ -35740,13 +35740,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>303.6443854593074</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>181.5401500614744</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
         <v>378.678393487941</v>
@@ -35983,7 +35983,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>78.80210640405862</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>183.002068966006</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>231.928132807181</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M22" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>78.80210640405868</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518972</v>
@@ -36451,13 +36451,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P24" t="n">
-        <v>198.6066905802598</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N25" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O26" t="n">
         <v>277.1250097811783</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>162.7270914936593</v>
@@ -36682,16 +36682,16 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>274.4557838975187</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189348</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M28" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N28" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O29" t="n">
         <v>277.1250097811783</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
-        <v>181.5401500614753</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
         <v>378.678393487941</v>
@@ -36925,10 +36925,10 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189348</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M31" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N31" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O32" t="n">
         <v>277.1250097811783</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
@@ -37156,19 +37156,19 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>183.002068966006</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P33" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189352</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M34" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N34" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O35" t="n">
         <v>277.1250097811783</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>58.50448190323699</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37399,7 +37399,7 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971608</v>
       </c>
       <c r="P36" t="n">
         <v>231.5559236085354</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M37" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N37" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>78.80210640405868</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
@@ -37636,13 +37636,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.50448190323704</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
         <v>277.1250097811783</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405868</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37873,13 +37873,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
-        <v>120.6196694648265</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323646</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
@@ -38113,7 +38113,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>147.630938518935</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
